--- a/Arquivos/Dataset/resultado.xlsx
+++ b/Arquivos/Dataset/resultado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ciellos\GymTrendTaskForce\Arquivos\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79BE060-6919-4B71-9897-B129C19945B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B3B338-2AD3-4B51-AA15-74DC77FCF3EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="1356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="1354">
   <si>
     <t>title</t>
   </si>
@@ -3822,9 +3822,6 @@
     <t>R. do Zambeze 282, 4250-505 Porto, Portugal</t>
   </si>
   <si>
-    <t>Martia Arts</t>
-  </si>
-  <si>
     <t>The Little Gym Pinheiro Manso</t>
   </si>
   <si>
@@ -3895,9 +3892,6 @@
   </si>
   <si>
     <t>R. Sara Afonso 105 117, 4460-841 Sra. da Hora, Portugal</t>
-  </si>
-  <si>
-    <t>Fitness center</t>
   </si>
   <si>
     <t>Studio Tai Chi Center</t>
@@ -4389,17 +4383,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="D672" sqref="D672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="118.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" customWidth="1"/>
@@ -4427,7 +4420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -4447,7 +4440,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -4467,7 +4460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -4487,7 +4480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -4507,7 +4500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -4527,7 +4520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -4547,7 +4540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -4567,7 +4560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -4587,7 +4580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -4607,7 +4600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -4627,7 +4620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -4647,7 +4640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -4667,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -4687,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -4707,7 +4700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>37</v>
       </c>
@@ -4727,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -4747,7 +4740,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -4767,7 +4760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -4787,7 +4780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -4807,7 +4800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -4827,7 +4820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -4847,7 +4840,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>52</v>
       </c>
@@ -4867,7 +4860,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>54</v>
       </c>
@@ -4887,7 +4880,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>56</v>
       </c>
@@ -4907,7 +4900,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -4927,7 +4920,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>60</v>
       </c>
@@ -4947,7 +4940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -4967,7 +4960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -4987,7 +4980,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
@@ -5007,7 +5000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -5027,7 +5020,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -5047,7 +5040,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -5067,7 +5060,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -5087,7 +5080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -5107,7 +5100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
@@ -5127,7 +5120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
@@ -5147,7 +5140,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -5167,7 +5160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
@@ -5187,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -5207,7 +5200,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>90</v>
       </c>
@@ -5227,7 +5220,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
@@ -5247,7 +5240,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>94</v>
       </c>
@@ -5267,7 +5260,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -5287,7 +5280,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>98</v>
       </c>
@@ -5307,7 +5300,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>100</v>
       </c>
@@ -5327,7 +5320,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>102</v>
       </c>
@@ -5347,7 +5340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>104</v>
       </c>
@@ -5367,7 +5360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>106</v>
       </c>
@@ -5387,7 +5380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>107</v>
       </c>
@@ -5407,7 +5400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>109</v>
       </c>
@@ -5427,7 +5420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>111</v>
       </c>
@@ -5447,7 +5440,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>113</v>
       </c>
@@ -5467,7 +5460,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>115</v>
       </c>
@@ -5487,7 +5480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>117</v>
       </c>
@@ -5507,7 +5500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>119</v>
       </c>
@@ -5527,7 +5520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>121</v>
       </c>
@@ -5547,7 +5540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>123</v>
       </c>
@@ -5567,7 +5560,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>125</v>
       </c>
@@ -5587,7 +5580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>127</v>
       </c>
@@ -5607,7 +5600,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>129</v>
       </c>
@@ -5627,7 +5620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>131</v>
       </c>
@@ -5647,7 +5640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>133</v>
       </c>
@@ -5667,7 +5660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
@@ -5687,7 +5680,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>138</v>
       </c>
@@ -5707,7 +5700,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>140</v>
       </c>
@@ -5727,7 +5720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>142</v>
       </c>
@@ -5747,7 +5740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>144</v>
       </c>
@@ -5767,7 +5760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>146</v>
       </c>
@@ -5807,7 +5800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>150</v>
       </c>
@@ -5827,7 +5820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>151</v>
       </c>
@@ -5847,7 +5840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>153</v>
       </c>
@@ -5867,7 +5860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>155</v>
       </c>
@@ -5887,7 +5880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>158</v>
       </c>
@@ -5907,7 +5900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>160</v>
       </c>
@@ -5927,7 +5920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>162</v>
       </c>
@@ -5947,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>164</v>
       </c>
@@ -5967,7 +5960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>166</v>
       </c>
@@ -5987,7 +5980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>169</v>
       </c>
@@ -6007,7 +6000,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>171</v>
       </c>
@@ -6027,7 +6020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>173</v>
       </c>
@@ -6047,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>175</v>
       </c>
@@ -6067,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>177</v>
       </c>
@@ -6087,7 +6080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>179</v>
       </c>
@@ -6107,7 +6100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>180</v>
       </c>
@@ -6127,7 +6120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>182</v>
       </c>
@@ -6147,7 +6140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>184</v>
       </c>
@@ -6167,7 +6160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>186</v>
       </c>
@@ -6187,7 +6180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>187</v>
       </c>
@@ -6227,7 +6220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>191</v>
       </c>
@@ -6247,7 +6240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>193</v>
       </c>
@@ -6267,7 +6260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>195</v>
       </c>
@@ -6287,7 +6280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>197</v>
       </c>
@@ -6307,7 +6300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>199</v>
       </c>
@@ -6327,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>201</v>
       </c>
@@ -6347,7 +6340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>203</v>
       </c>
@@ -6367,7 +6360,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>206</v>
       </c>
@@ -6387,7 +6380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>208</v>
       </c>
@@ -6407,7 +6400,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>210</v>
       </c>
@@ -6427,7 +6420,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>212</v>
       </c>
@@ -6447,7 +6440,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>214</v>
       </c>
@@ -6467,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>216</v>
       </c>
@@ -6487,7 +6480,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>218</v>
       </c>
@@ -6507,7 +6500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>220</v>
       </c>
@@ -6527,7 +6520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>222</v>
       </c>
@@ -6547,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>224</v>
       </c>
@@ -6567,7 +6560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>226</v>
       </c>
@@ -6587,7 +6580,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>228</v>
       </c>
@@ -6607,7 +6600,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>231</v>
       </c>
@@ -6627,7 +6620,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>233</v>
       </c>
@@ -6647,7 +6640,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>235</v>
       </c>
@@ -6667,7 +6660,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>237</v>
       </c>
@@ -6687,7 +6680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>239</v>
       </c>
@@ -6707,7 +6700,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>241</v>
       </c>
@@ -6727,7 +6720,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>243</v>
       </c>
@@ -6747,7 +6740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>245</v>
       </c>
@@ -6767,7 +6760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>247</v>
       </c>
@@ -6787,7 +6780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>249</v>
       </c>
@@ -6807,7 +6800,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>251</v>
       </c>
@@ -6827,7 +6820,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>253</v>
       </c>
@@ -6847,7 +6840,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>255</v>
       </c>
@@ -6867,7 +6860,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>257</v>
       </c>
@@ -6887,7 +6880,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>259</v>
       </c>
@@ -6907,7 +6900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>261</v>
       </c>
@@ -6927,7 +6920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>263</v>
       </c>
@@ -6947,7 +6940,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>265</v>
       </c>
@@ -6967,7 +6960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>267</v>
       </c>
@@ -6987,7 +6980,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>269</v>
       </c>
@@ -7007,7 +7000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>271</v>
       </c>
@@ -7027,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>273</v>
       </c>
@@ -7047,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>275</v>
       </c>
@@ -7067,7 +7060,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>278</v>
       </c>
@@ -7087,7 +7080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>280</v>
       </c>
@@ -7107,7 +7100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>282</v>
       </c>
@@ -7127,7 +7120,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>284</v>
       </c>
@@ -7147,7 +7140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>286</v>
       </c>
@@ -7167,7 +7160,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>288</v>
       </c>
@@ -7187,7 +7180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>290</v>
       </c>
@@ -7207,7 +7200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>292</v>
       </c>
@@ -7227,7 +7220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>294</v>
       </c>
@@ -7247,7 +7240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>296</v>
       </c>
@@ -7267,7 +7260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>298</v>
       </c>
@@ -7287,7 +7280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>300</v>
       </c>
@@ -7307,7 +7300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>302</v>
       </c>
@@ -7327,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>304</v>
       </c>
@@ -7347,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>306</v>
       </c>
@@ -7367,7 +7360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>308</v>
       </c>
@@ -7387,7 +7380,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>311</v>
       </c>
@@ -7407,7 +7400,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>313</v>
       </c>
@@ -7427,7 +7420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>315</v>
       </c>
@@ -7447,7 +7440,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>317</v>
       </c>
@@ -7467,7 +7460,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>319</v>
       </c>
@@ -7487,7 +7480,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>321</v>
       </c>
@@ -7507,7 +7500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>323</v>
       </c>
@@ -7527,7 +7520,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>325</v>
       </c>
@@ -7547,7 +7540,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>327</v>
       </c>
@@ -7567,7 +7560,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>329</v>
       </c>
@@ -7587,7 +7580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>331</v>
       </c>
@@ -7607,7 +7600,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>333</v>
       </c>
@@ -7627,7 +7620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>335</v>
       </c>
@@ -7647,7 +7640,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>337</v>
       </c>
@@ -7667,7 +7660,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>339</v>
       </c>
@@ -7687,7 +7680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>341</v>
       </c>
@@ -7707,7 +7700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>343</v>
       </c>
@@ -7727,7 +7720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>345</v>
       </c>
@@ -7747,7 +7740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>347</v>
       </c>
@@ -7767,7 +7760,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>350</v>
       </c>
@@ -7787,7 +7780,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>352</v>
       </c>
@@ -7807,7 +7800,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>354</v>
       </c>
@@ -7827,7 +7820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>356</v>
       </c>
@@ -7847,7 +7840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>358</v>
       </c>
@@ -7867,7 +7860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>360</v>
       </c>
@@ -7887,7 +7880,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>362</v>
       </c>
@@ -7907,7 +7900,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>364</v>
       </c>
@@ -7927,7 +7920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>366</v>
       </c>
@@ -7947,7 +7940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>369</v>
       </c>
@@ -7967,7 +7960,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>371</v>
       </c>
@@ -7987,7 +7980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>373</v>
       </c>
@@ -8007,7 +8000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>375</v>
       </c>
@@ -8027,7 +8020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>377</v>
       </c>
@@ -8047,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>380</v>
       </c>
@@ -8067,7 +8060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>382</v>
       </c>
@@ -8087,7 +8080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>385</v>
       </c>
@@ -8107,7 +8100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>387</v>
       </c>
@@ -8127,7 +8120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>389</v>
       </c>
@@ -8147,7 +8140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>391</v>
       </c>
@@ -8167,7 +8160,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>394</v>
       </c>
@@ -8187,7 +8180,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>396</v>
       </c>
@@ -8207,7 +8200,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>398</v>
       </c>
@@ -8227,7 +8220,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>400</v>
       </c>
@@ -8247,7 +8240,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>402</v>
       </c>
@@ -8267,7 +8260,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>404</v>
       </c>
@@ -8287,7 +8280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>406</v>
       </c>
@@ -8307,7 +8300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>408</v>
       </c>
@@ -8327,7 +8320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>410</v>
       </c>
@@ -8347,7 +8340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>412</v>
       </c>
@@ -8367,7 +8360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>414</v>
       </c>
@@ -8387,7 +8380,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>416</v>
       </c>
@@ -8407,7 +8400,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>418</v>
       </c>
@@ -8427,7 +8420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>420</v>
       </c>
@@ -8447,7 +8440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>422</v>
       </c>
@@ -8467,7 +8460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>424</v>
       </c>
@@ -8487,12 +8480,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>426</v>
       </c>
       <c r="B205" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C205" t="s">
         <v>393</v>
@@ -8507,7 +8500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>427</v>
       </c>
@@ -8527,7 +8520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>429</v>
       </c>
@@ -8547,7 +8540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>431</v>
       </c>
@@ -8567,7 +8560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>433</v>
       </c>
@@ -8587,7 +8580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>435</v>
       </c>
@@ -8607,7 +8600,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>438</v>
       </c>
@@ -8627,7 +8620,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>440</v>
       </c>
@@ -8647,7 +8640,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>442</v>
       </c>
@@ -8667,7 +8660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>444</v>
       </c>
@@ -8687,7 +8680,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>446</v>
       </c>
@@ -8707,7 +8700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>448</v>
       </c>
@@ -8727,7 +8720,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>450</v>
       </c>
@@ -8747,7 +8740,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>452</v>
       </c>
@@ -8767,7 +8760,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>454</v>
       </c>
@@ -8787,7 +8780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>456</v>
       </c>
@@ -8807,7 +8800,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>458</v>
       </c>
@@ -8827,7 +8820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>460</v>
       </c>
@@ -8847,7 +8840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>462</v>
       </c>
@@ -8867,7 +8860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>464</v>
       </c>
@@ -8887,7 +8880,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>466</v>
       </c>
@@ -8907,7 +8900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>468</v>
       </c>
@@ -8927,7 +8920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>468</v>
       </c>
@@ -8947,7 +8940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>471</v>
       </c>
@@ -8967,7 +8960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>473</v>
       </c>
@@ -8987,7 +8980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>475</v>
       </c>
@@ -9007,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>477</v>
       </c>
@@ -9027,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>479</v>
       </c>
@@ -9047,7 +9040,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>482</v>
       </c>
@@ -9067,7 +9060,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>484</v>
       </c>
@@ -9087,7 +9080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>486</v>
       </c>
@@ -9107,7 +9100,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>488</v>
       </c>
@@ -9127,7 +9120,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>228</v>
       </c>
@@ -9147,7 +9140,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>491</v>
       </c>
@@ -9167,7 +9160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>493</v>
       </c>
@@ -9187,7 +9180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>495</v>
       </c>
@@ -9207,7 +9200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>497</v>
       </c>
@@ -9227,7 +9220,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>499</v>
       </c>
@@ -9247,7 +9240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>501</v>
       </c>
@@ -9267,7 +9260,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>503</v>
       </c>
@@ -9287,7 +9280,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>505</v>
       </c>
@@ -9307,7 +9300,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>507</v>
       </c>
@@ -9327,7 +9320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>509</v>
       </c>
@@ -9347,7 +9340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>511</v>
       </c>
@@ -9367,7 +9360,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>513</v>
       </c>
@@ -9387,7 +9380,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>515</v>
       </c>
@@ -9407,7 +9400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>517</v>
       </c>
@@ -9427,7 +9420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>519</v>
       </c>
@@ -9447,7 +9440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>521</v>
       </c>
@@ -9467,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>523</v>
       </c>
@@ -9487,7 +9480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>525</v>
       </c>
@@ -9507,7 +9500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>527</v>
       </c>
@@ -9527,7 +9520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>529</v>
       </c>
@@ -9547,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>531</v>
       </c>
@@ -9567,7 +9560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>533</v>
       </c>
@@ -9587,7 +9580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>535</v>
       </c>
@@ -9607,7 +9600,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>537</v>
       </c>
@@ -9627,7 +9620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>539</v>
       </c>
@@ -9647,7 +9640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>541</v>
       </c>
@@ -9667,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>543</v>
       </c>
@@ -9687,7 +9680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>545</v>
       </c>
@@ -9707,7 +9700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>547</v>
       </c>
@@ -9727,7 +9720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>549</v>
       </c>
@@ -9747,7 +9740,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>551</v>
       </c>
@@ -9767,7 +9760,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>554</v>
       </c>
@@ -9787,7 +9780,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>556</v>
       </c>
@@ -9807,7 +9800,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>558</v>
       </c>
@@ -9827,7 +9820,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>560</v>
       </c>
@@ -9847,7 +9840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>562</v>
       </c>
@@ -9867,7 +9860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>564</v>
       </c>
@@ -9887,7 +9880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>566</v>
       </c>
@@ -9907,7 +9900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>568</v>
       </c>
@@ -9927,7 +9920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>570</v>
       </c>
@@ -9947,7 +9940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>572</v>
       </c>
@@ -9967,7 +9960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>574</v>
       </c>
@@ -9987,7 +9980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>576</v>
       </c>
@@ -10007,7 +10000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>578</v>
       </c>
@@ -10027,7 +10020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>580</v>
       </c>
@@ -10047,7 +10040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>582</v>
       </c>
@@ -10067,7 +10060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>584</v>
       </c>
@@ -10087,7 +10080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>585</v>
       </c>
@@ -10107,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>587</v>
       </c>
@@ -10127,7 +10120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>589</v>
       </c>
@@ -10147,7 +10140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>591</v>
       </c>
@@ -10167,7 +10160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>593</v>
       </c>
@@ -10187,7 +10180,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>595</v>
       </c>
@@ -10195,7 +10188,7 @@
         <v>596</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>9</v>
@@ -10207,7 +10200,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>597</v>
       </c>
@@ -10215,7 +10208,7 @@
         <v>598</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>9</v>
@@ -10227,7 +10220,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>599</v>
       </c>
@@ -10235,7 +10228,7 @@
         <v>600</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>9</v>
@@ -10247,7 +10240,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>601</v>
       </c>
@@ -10255,7 +10248,7 @@
         <v>602</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>9</v>
@@ -10267,7 +10260,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>603</v>
       </c>
@@ -10275,7 +10268,7 @@
         <v>604</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>9</v>
@@ -10287,7 +10280,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>605</v>
       </c>
@@ -10295,7 +10288,7 @@
         <v>606</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>9</v>
@@ -10307,7 +10300,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>607</v>
       </c>
@@ -10315,7 +10308,7 @@
         <v>608</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>9</v>
@@ -10327,7 +10320,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>609</v>
       </c>
@@ -10335,7 +10328,7 @@
         <v>610</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>9</v>
@@ -10347,7 +10340,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>611</v>
       </c>
@@ -10355,7 +10348,7 @@
         <v>612</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>9</v>
@@ -10367,7 +10360,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>613</v>
       </c>
@@ -10375,7 +10368,7 @@
         <v>614</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>9</v>
@@ -10387,7 +10380,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>228</v>
       </c>
@@ -10395,7 +10388,7 @@
         <v>615</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>9</v>
@@ -10407,7 +10400,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>616</v>
       </c>
@@ -10415,7 +10408,7 @@
         <v>617</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>9</v>
@@ -10427,7 +10420,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>618</v>
       </c>
@@ -10435,7 +10428,7 @@
         <v>619</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>9</v>
@@ -10447,7 +10440,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>620</v>
       </c>
@@ -10455,7 +10448,7 @@
         <v>621</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>9</v>
@@ -10467,7 +10460,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>622</v>
       </c>
@@ -10475,7 +10468,7 @@
         <v>623</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>9</v>
@@ -10487,7 +10480,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>624</v>
       </c>
@@ -10495,7 +10488,7 @@
         <v>625</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>9</v>
@@ -10507,7 +10500,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>626</v>
       </c>
@@ -10515,7 +10508,7 @@
         <v>627</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>9</v>
@@ -10527,7 +10520,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>628</v>
       </c>
@@ -10535,7 +10528,7 @@
         <v>629</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>9</v>
@@ -10547,7 +10540,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>630</v>
       </c>
@@ -10555,7 +10548,7 @@
         <v>631</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>9</v>
@@ -10567,7 +10560,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>228</v>
       </c>
@@ -10575,7 +10568,7 @@
         <v>632</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>9</v>
@@ -10587,7 +10580,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>633</v>
       </c>
@@ -10595,7 +10588,7 @@
         <v>634</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>9</v>
@@ -10607,7 +10600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>635</v>
       </c>
@@ -10615,7 +10608,7 @@
         <v>636</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>9</v>
@@ -10627,7 +10620,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>637</v>
       </c>
@@ -10635,7 +10628,7 @@
         <v>638</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>9</v>
@@ -10647,7 +10640,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>639</v>
       </c>
@@ -10655,7 +10648,7 @@
         <v>640</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>9</v>
@@ -10667,7 +10660,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>641</v>
       </c>
@@ -10675,7 +10668,7 @@
         <v>642</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>9</v>
@@ -10687,7 +10680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>643</v>
       </c>
@@ -10695,7 +10688,7 @@
         <v>644</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>9</v>
@@ -10707,7 +10700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>645</v>
       </c>
@@ -10715,7 +10708,7 @@
         <v>646</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>9</v>
@@ -10727,7 +10720,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>647</v>
       </c>
@@ -10735,7 +10728,7 @@
         <v>648</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>9</v>
@@ -10747,7 +10740,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>649</v>
       </c>
@@ -10755,7 +10748,7 @@
         <v>650</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>9</v>
@@ -10767,7 +10760,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>651</v>
       </c>
@@ -10775,7 +10768,7 @@
         <v>652</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>9</v>
@@ -10787,7 +10780,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>653</v>
       </c>
@@ -10795,7 +10788,7 @@
         <v>654</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>9</v>
@@ -10807,7 +10800,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>655</v>
       </c>
@@ -10815,7 +10808,7 @@
         <v>600</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>9</v>
@@ -10827,7 +10820,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>656</v>
       </c>
@@ -10835,7 +10828,7 @@
         <v>657</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>9</v>
@@ -10847,7 +10840,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>658</v>
       </c>
@@ -10855,7 +10848,7 @@
         <v>659</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>9</v>
@@ -10867,7 +10860,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>660</v>
       </c>
@@ -10875,7 +10868,7 @@
         <v>661</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>9</v>
@@ -10887,7 +10880,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>662</v>
       </c>
@@ -10895,7 +10888,7 @@
         <v>663</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>9</v>
@@ -10907,7 +10900,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>664</v>
       </c>
@@ -10915,7 +10908,7 @@
         <v>665</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>9</v>
@@ -10927,7 +10920,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>666</v>
       </c>
@@ -10935,7 +10928,7 @@
         <v>667</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>9</v>
@@ -10947,7 +10940,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="328" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>668</v>
       </c>
@@ -10955,7 +10948,7 @@
         <v>669</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>9</v>
@@ -10967,7 +10960,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>670</v>
       </c>
@@ -10975,7 +10968,7 @@
         <v>671</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>9</v>
@@ -10987,7 +10980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>672</v>
       </c>
@@ -10995,7 +10988,7 @@
         <v>673</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>9</v>
@@ -11007,7 +11000,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>674</v>
       </c>
@@ -11015,7 +11008,7 @@
         <v>675</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>9</v>
@@ -11027,7 +11020,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>676</v>
       </c>
@@ -11035,7 +11028,7 @@
         <v>677</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>9</v>
@@ -11047,7 +11040,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>678</v>
       </c>
@@ -11055,7 +11048,7 @@
         <v>679</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>9</v>
@@ -11067,7 +11060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>680</v>
       </c>
@@ -11075,7 +11068,7 @@
         <v>681</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>9</v>
@@ -11087,7 +11080,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>682</v>
       </c>
@@ -11095,7 +11088,7 @@
         <v>683</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>9</v>
@@ -11107,7 +11100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>684</v>
       </c>
@@ -11115,7 +11108,7 @@
         <v>685</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>9</v>
@@ -11127,7 +11120,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>686</v>
       </c>
@@ -11135,7 +11128,7 @@
         <v>687</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>75</v>
@@ -11147,7 +11140,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>688</v>
       </c>
@@ -11155,7 +11148,7 @@
         <v>689</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>9</v>
@@ -11167,7 +11160,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>690</v>
       </c>
@@ -11175,7 +11168,7 @@
         <v>691</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>9</v>
@@ -11187,7 +11180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>692</v>
       </c>
@@ -11195,7 +11188,7 @@
         <v>693</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>9</v>
@@ -11207,7 +11200,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>694</v>
       </c>
@@ -11215,7 +11208,7 @@
         <v>695</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>9</v>
@@ -11227,7 +11220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>696</v>
       </c>
@@ -11235,7 +11228,7 @@
         <v>697</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>9</v>
@@ -11247,7 +11240,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>698</v>
       </c>
@@ -11255,7 +11248,7 @@
         <v>699</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>9</v>
@@ -11267,7 +11260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>700</v>
       </c>
@@ -11275,7 +11268,7 @@
         <v>701</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>9</v>
@@ -11287,7 +11280,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>702</v>
       </c>
@@ -11295,7 +11288,7 @@
         <v>703</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>9</v>
@@ -11307,7 +11300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>704</v>
       </c>
@@ -11315,7 +11308,7 @@
         <v>705</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>9</v>
@@ -11327,7 +11320,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>656</v>
       </c>
@@ -11335,7 +11328,7 @@
         <v>706</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>9</v>
@@ -11347,7 +11340,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>707</v>
       </c>
@@ -11355,7 +11348,7 @@
         <v>708</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>9</v>
@@ -11367,7 +11360,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>709</v>
       </c>
@@ -11375,7 +11368,7 @@
         <v>710</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>9</v>
@@ -11387,7 +11380,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>711</v>
       </c>
@@ -11395,7 +11388,7 @@
         <v>712</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>9</v>
@@ -11407,7 +11400,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>713</v>
       </c>
@@ -11415,7 +11408,7 @@
         <v>714</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>9</v>
@@ -11427,7 +11420,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>715</v>
       </c>
@@ -11435,7 +11428,7 @@
         <v>716</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>9</v>
@@ -11447,7 +11440,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>649</v>
       </c>
@@ -11455,7 +11448,7 @@
         <v>717</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>9</v>
@@ -11467,7 +11460,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>718</v>
       </c>
@@ -11475,7 +11468,7 @@
         <v>719</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>9</v>
@@ -11487,7 +11480,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>720</v>
       </c>
@@ -11495,7 +11488,7 @@
         <v>721</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>9</v>
@@ -11507,7 +11500,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>722</v>
       </c>
@@ -11515,7 +11508,7 @@
         <v>723</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>9</v>
@@ -11527,7 +11520,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>724</v>
       </c>
@@ -11535,7 +11528,7 @@
         <v>725</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>9</v>
@@ -11547,7 +11540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>726</v>
       </c>
@@ -11555,7 +11548,7 @@
         <v>727</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>9</v>
@@ -11567,7 +11560,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>728</v>
       </c>
@@ -11575,7 +11568,7 @@
         <v>729</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>9</v>
@@ -11587,7 +11580,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>730</v>
       </c>
@@ -11595,7 +11588,7 @@
         <v>731</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>9</v>
@@ -11607,7 +11600,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>732</v>
       </c>
@@ -11615,7 +11608,7 @@
         <v>733</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>9</v>
@@ -11627,7 +11620,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>734</v>
       </c>
@@ -11635,7 +11628,7 @@
         <v>735</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>9</v>
@@ -11647,7 +11640,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>736</v>
       </c>
@@ -11655,7 +11648,7 @@
         <v>737</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>9</v>
@@ -11667,7 +11660,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>738</v>
       </c>
@@ -11675,7 +11668,7 @@
         <v>739</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>9</v>
@@ -11687,7 +11680,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>740</v>
       </c>
@@ -11695,7 +11688,7 @@
         <v>741</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>9</v>
@@ -11707,7 +11700,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>742</v>
       </c>
@@ -11715,7 +11708,7 @@
         <v>743</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>9</v>
@@ -11727,7 +11720,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>744</v>
       </c>
@@ -11735,7 +11728,7 @@
         <v>745</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>9</v>
@@ -11747,7 +11740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>746</v>
       </c>
@@ -11755,7 +11748,7 @@
         <v>747</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>9</v>
@@ -11767,7 +11760,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>748</v>
       </c>
@@ -11775,7 +11768,7 @@
         <v>749</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>9</v>
@@ -11787,7 +11780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>750</v>
       </c>
@@ -11795,7 +11788,7 @@
         <v>751</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>9</v>
@@ -11807,7 +11800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="371" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>752</v>
       </c>
@@ -11815,7 +11808,7 @@
         <v>753</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>9</v>
@@ -11827,7 +11820,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="372" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>754</v>
       </c>
@@ -11835,7 +11828,7 @@
         <v>755</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D372" s="2" t="s">
         <v>9</v>
@@ -11847,7 +11840,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="373" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>756</v>
       </c>
@@ -11855,7 +11848,7 @@
         <v>757</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>9</v>
@@ -11867,7 +11860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>758</v>
       </c>
@@ -11875,7 +11868,7 @@
         <v>759</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>9</v>
@@ -11887,7 +11880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>760</v>
       </c>
@@ -11895,7 +11888,7 @@
         <v>761</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>30</v>
@@ -11907,7 +11900,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="376" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>762</v>
       </c>
@@ -11915,7 +11908,7 @@
         <v>763</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>9</v>
@@ -11927,7 +11920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="377" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>764</v>
       </c>
@@ -11935,7 +11928,7 @@
         <v>765</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>9</v>
@@ -11947,7 +11940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="378" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>766</v>
       </c>
@@ -11955,7 +11948,7 @@
         <v>767</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>9</v>
@@ -11967,7 +11960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>768</v>
       </c>
@@ -11975,7 +11968,7 @@
         <v>769</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>9</v>
@@ -11987,7 +11980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>770</v>
       </c>
@@ -11995,7 +11988,7 @@
         <v>771</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>9</v>
@@ -12007,7 +12000,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="381" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>772</v>
       </c>
@@ -12015,7 +12008,7 @@
         <v>773</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>9</v>
@@ -12027,7 +12020,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="382" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>774</v>
       </c>
@@ -12035,7 +12028,7 @@
         <v>775</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>9</v>
@@ -12047,7 +12040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>776</v>
       </c>
@@ -12055,7 +12048,7 @@
         <v>777</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>9</v>
@@ -12067,7 +12060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>778</v>
       </c>
@@ -12075,7 +12068,7 @@
         <v>779</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>9</v>
@@ -12087,7 +12080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>780</v>
       </c>
@@ -12095,7 +12088,7 @@
         <v>781</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>9</v>
@@ -12107,7 +12100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>782</v>
       </c>
@@ -12115,7 +12108,7 @@
         <v>783</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>9</v>
@@ -12127,7 +12120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>784</v>
       </c>
@@ -12135,7 +12128,7 @@
         <v>785</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>30</v>
@@ -12147,7 +12140,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="388" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>786</v>
       </c>
@@ -12155,7 +12148,7 @@
         <v>787</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>9</v>
@@ -12167,7 +12160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>788</v>
       </c>
@@ -12175,7 +12168,7 @@
         <v>789</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>9</v>
@@ -12187,7 +12180,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>790</v>
       </c>
@@ -12195,7 +12188,7 @@
         <v>791</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>9</v>
@@ -12207,7 +12200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>792</v>
       </c>
@@ -12215,7 +12208,7 @@
         <v>793</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>9</v>
@@ -12227,7 +12220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>794</v>
       </c>
@@ -12235,7 +12228,7 @@
         <v>795</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>9</v>
@@ -12247,7 +12240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>796</v>
       </c>
@@ -12255,7 +12248,7 @@
         <v>797</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>9</v>
@@ -12267,7 +12260,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>798</v>
       </c>
@@ -12275,7 +12268,7 @@
         <v>799</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>9</v>
@@ -12287,7 +12280,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>800</v>
       </c>
@@ -12295,7 +12288,7 @@
         <v>801</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>9</v>
@@ -12307,7 +12300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>802</v>
       </c>
@@ -12315,7 +12308,7 @@
         <v>803</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>9</v>
@@ -12327,7 +12320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>804</v>
       </c>
@@ -12335,7 +12328,7 @@
         <v>805</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>9</v>
@@ -12347,7 +12340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>806</v>
       </c>
@@ -12355,7 +12348,7 @@
         <v>807</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>30</v>
@@ -12367,7 +12360,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>808</v>
       </c>
@@ -12375,7 +12368,7 @@
         <v>809</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>9</v>
@@ -12387,7 +12380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>810</v>
       </c>
@@ -12395,7 +12388,7 @@
         <v>811</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>9</v>
@@ -12407,7 +12400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>812</v>
       </c>
@@ -12415,7 +12408,7 @@
         <v>813</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>9</v>
@@ -12427,7 +12420,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>814</v>
       </c>
@@ -12435,7 +12428,7 @@
         <v>815</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>9</v>
@@ -12447,7 +12440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>816</v>
       </c>
@@ -12455,7 +12448,7 @@
         <v>817</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>9</v>
@@ -12467,7 +12460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>818</v>
       </c>
@@ -12475,7 +12468,7 @@
         <v>819</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>9</v>
@@ -12487,7 +12480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>820</v>
       </c>
@@ -12495,7 +12488,7 @@
         <v>821</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>9</v>
@@ -12507,7 +12500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>822</v>
       </c>
@@ -12515,7 +12508,7 @@
         <v>823</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>9</v>
@@ -12527,7 +12520,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>824</v>
       </c>
@@ -12535,7 +12528,7 @@
         <v>825</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>9</v>
@@ -12547,7 +12540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>826</v>
       </c>
@@ -12555,7 +12548,7 @@
         <v>827</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>75</v>
@@ -12567,7 +12560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>828</v>
       </c>
@@ -12575,7 +12568,7 @@
         <v>829</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>9</v>
@@ -12587,7 +12580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>830</v>
       </c>
@@ -12595,7 +12588,7 @@
         <v>831</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>9</v>
@@ -12607,7 +12600,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>832</v>
       </c>
@@ -12615,7 +12608,7 @@
         <v>833</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>72</v>
@@ -12627,7 +12620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>834</v>
       </c>
@@ -12635,7 +12628,7 @@
         <v>835</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>9</v>
@@ -12647,7 +12640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>836</v>
       </c>
@@ -12655,7 +12648,7 @@
         <v>837</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>9</v>
@@ -12667,7 +12660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>838</v>
       </c>
@@ -12675,7 +12668,7 @@
         <v>839</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>9</v>
@@ -12687,7 +12680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>840</v>
       </c>
@@ -12695,7 +12688,7 @@
         <v>841</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>9</v>
@@ -12707,7 +12700,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>842</v>
       </c>
@@ -12715,7 +12708,7 @@
         <v>843</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>72</v>
@@ -12727,7 +12720,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>844</v>
       </c>
@@ -12735,7 +12728,7 @@
         <v>845</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>9</v>
@@ -12747,7 +12740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>846</v>
       </c>
@@ -12755,7 +12748,7 @@
         <v>847</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>9</v>
@@ -12767,7 +12760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>848</v>
       </c>
@@ -12775,7 +12768,7 @@
         <v>849</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>9</v>
@@ -12787,7 +12780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>850</v>
       </c>
@@ -12795,7 +12788,7 @@
         <v>851</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>75</v>
@@ -12807,7 +12800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>852</v>
       </c>
@@ -12815,7 +12808,7 @@
         <v>853</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>9</v>
@@ -12827,7 +12820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>854</v>
       </c>
@@ -12835,7 +12828,7 @@
         <v>855</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>30</v>
@@ -12847,7 +12840,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>856</v>
       </c>
@@ -12855,7 +12848,7 @@
         <v>857</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>9</v>
@@ -12867,7 +12860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>858</v>
       </c>
@@ -12875,7 +12868,7 @@
         <v>859</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D424" s="2" t="s">
         <v>9</v>
@@ -12887,7 +12880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>860</v>
       </c>
@@ -12895,7 +12888,7 @@
         <v>861</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D425" s="2" t="s">
         <v>72</v>
@@ -12907,7 +12900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>862</v>
       </c>
@@ -12915,7 +12908,7 @@
         <v>863</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>9</v>
@@ -12927,7 +12920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>864</v>
       </c>
@@ -12935,7 +12928,7 @@
         <v>865</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>9</v>
@@ -12947,7 +12940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>866</v>
       </c>
@@ -12955,7 +12948,7 @@
         <v>867</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>30</v>
@@ -12967,7 +12960,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>868</v>
       </c>
@@ -12975,7 +12968,7 @@
         <v>869</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>9</v>
@@ -12987,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>870</v>
       </c>
@@ -12995,7 +12988,7 @@
         <v>871</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>9</v>
@@ -13007,7 +13000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>872</v>
       </c>
@@ -13015,7 +13008,7 @@
         <v>873</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>9</v>
@@ -13027,7 +13020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>874</v>
       </c>
@@ -13035,7 +13028,7 @@
         <v>875</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>9</v>
@@ -13047,7 +13040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>876</v>
       </c>
@@ -13055,7 +13048,7 @@
         <v>877</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D433" s="2" t="s">
         <v>9</v>
@@ -13067,7 +13060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>878</v>
       </c>
@@ -13075,7 +13068,7 @@
         <v>879</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>72</v>
@@ -13087,7 +13080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>880</v>
       </c>
@@ -13095,7 +13088,7 @@
         <v>881</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>9</v>
@@ -13107,7 +13100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>882</v>
       </c>
@@ -13115,7 +13108,7 @@
         <v>883</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>9</v>
@@ -13127,7 +13120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>884</v>
       </c>
@@ -13135,7 +13128,7 @@
         <v>885</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D437" s="2" t="s">
         <v>9</v>
@@ -13147,7 +13140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>886</v>
       </c>
@@ -13155,7 +13148,7 @@
         <v>887</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D438" s="2" t="s">
         <v>9</v>
@@ -13167,7 +13160,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>888</v>
       </c>
@@ -13175,7 +13168,7 @@
         <v>889</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D439" s="2" t="s">
         <v>9</v>
@@ -13187,7 +13180,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>890</v>
       </c>
@@ -13195,7 +13188,7 @@
         <v>891</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D440" s="2" t="s">
         <v>9</v>
@@ -13207,7 +13200,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>892</v>
       </c>
@@ -13215,7 +13208,7 @@
         <v>893</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>9</v>
@@ -13227,7 +13220,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>894</v>
       </c>
@@ -13235,7 +13228,7 @@
         <v>895</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D442" s="2" t="s">
         <v>9</v>
@@ -13247,7 +13240,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>896</v>
       </c>
@@ -13255,7 +13248,7 @@
         <v>897</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>9</v>
@@ -13267,7 +13260,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>898</v>
       </c>
@@ -13275,7 +13268,7 @@
         <v>899</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>9</v>
@@ -13287,7 +13280,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>900</v>
       </c>
@@ -13295,7 +13288,7 @@
         <v>901</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D445" s="2" t="s">
         <v>9</v>
@@ -13307,7 +13300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>902</v>
       </c>
@@ -13315,7 +13308,7 @@
         <v>903</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D446" s="2" t="s">
         <v>9</v>
@@ -13327,7 +13320,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>904</v>
       </c>
@@ -13335,7 +13328,7 @@
         <v>905</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D447" s="2" t="s">
         <v>9</v>
@@ -13347,7 +13340,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>906</v>
       </c>
@@ -13355,7 +13348,7 @@
         <v>907</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D448" s="2" t="s">
         <v>9</v>
@@ -13367,7 +13360,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>908</v>
       </c>
@@ -13375,7 +13368,7 @@
         <v>909</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>9</v>
@@ -13387,7 +13380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>910</v>
       </c>
@@ -13395,7 +13388,7 @@
         <v>911</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D450" s="2" t="s">
         <v>9</v>
@@ -13407,7 +13400,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>912</v>
       </c>
@@ -13415,7 +13408,7 @@
         <v>913</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>9</v>
@@ -13427,7 +13420,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>914</v>
       </c>
@@ -13435,7 +13428,7 @@
         <v>915</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D452" s="2" t="s">
         <v>9</v>
@@ -13447,7 +13440,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>916</v>
       </c>
@@ -13455,7 +13448,7 @@
         <v>917</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>9</v>
@@ -13467,7 +13460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>918</v>
       </c>
@@ -13475,7 +13468,7 @@
         <v>919</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D454" s="2" t="s">
         <v>9</v>
@@ -13487,7 +13480,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>920</v>
       </c>
@@ -13495,7 +13488,7 @@
         <v>921</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D455" s="2" t="s">
         <v>9</v>
@@ -13507,7 +13500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>922</v>
       </c>
@@ -13515,7 +13508,7 @@
         <v>923</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>75</v>
@@ -13527,7 +13520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>924</v>
       </c>
@@ -13535,7 +13528,7 @@
         <v>813</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D457" s="2" t="s">
         <v>9</v>
@@ -13547,7 +13540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>925</v>
       </c>
@@ -13555,7 +13548,7 @@
         <v>926</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D458" s="2" t="s">
         <v>9</v>
@@ -13567,7 +13560,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>927</v>
       </c>
@@ -13575,7 +13568,7 @@
         <v>928</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>9</v>
@@ -13587,7 +13580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>929</v>
       </c>
@@ -13595,7 +13588,7 @@
         <v>930</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D460" s="2" t="s">
         <v>9</v>
@@ -13607,7 +13600,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>931</v>
       </c>
@@ -13615,7 +13608,7 @@
         <v>932</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D461" s="2" t="s">
         <v>9</v>
@@ -13627,7 +13620,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>933</v>
       </c>
@@ -13635,7 +13628,7 @@
         <v>934</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D462" s="2" t="s">
         <v>9</v>
@@ -13647,7 +13640,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>935</v>
       </c>
@@ -13655,7 +13648,7 @@
         <v>936</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="D463" s="2" t="s">
         <v>9</v>
@@ -13667,7 +13660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>937</v>
       </c>
@@ -13687,7 +13680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3" t="s">
         <v>940</v>
       </c>
@@ -13707,7 +13700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3" t="s">
         <v>942</v>
       </c>
@@ -13727,7 +13720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>944</v>
       </c>
@@ -13747,7 +13740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3" t="s">
         <v>946</v>
       </c>
@@ -13767,7 +13760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3" t="s">
         <v>948</v>
       </c>
@@ -13787,7 +13780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3" t="s">
         <v>950</v>
       </c>
@@ -13807,7 +13800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>952</v>
       </c>
@@ -13827,7 +13820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>954</v>
       </c>
@@ -13847,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>957</v>
       </c>
@@ -13867,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="3" t="s">
         <v>959</v>
       </c>
@@ -13887,7 +13880,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="3" t="s">
         <v>961</v>
       </c>
@@ -13907,7 +13900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="3" t="s">
         <v>963</v>
       </c>
@@ -13927,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>965</v>
       </c>
@@ -13947,7 +13940,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>967</v>
       </c>
@@ -13967,7 +13960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>969</v>
       </c>
@@ -13987,7 +13980,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="3" t="s">
         <v>971</v>
       </c>
@@ -14007,7 +14000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="3" t="s">
         <v>973</v>
       </c>
@@ -14027,7 +14020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="3" t="s">
         <v>975</v>
       </c>
@@ -14047,7 +14040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="3" t="s">
         <v>977</v>
       </c>
@@ -14067,7 +14060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="3" t="s">
         <v>978</v>
       </c>
@@ -14087,7 +14080,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="3" t="s">
         <v>980</v>
       </c>
@@ -14107,7 +14100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="3" t="s">
         <v>982</v>
       </c>
@@ -14127,7 +14120,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="3" t="s">
         <v>984</v>
       </c>
@@ -14147,7 +14140,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>986</v>
       </c>
@@ -14167,7 +14160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="3" t="s">
         <v>988</v>
       </c>
@@ -14187,7 +14180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>990</v>
       </c>
@@ -14207,7 +14200,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="3" t="s">
         <v>992</v>
       </c>
@@ -14227,7 +14220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="3" t="s">
         <v>994</v>
       </c>
@@ -14247,7 +14240,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="3" t="s">
         <v>996</v>
       </c>
@@ -14267,7 +14260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="3" t="s">
         <v>998</v>
       </c>
@@ -14287,7 +14280,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="3" t="s">
         <v>1000</v>
       </c>
@@ -14307,7 +14300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>1002</v>
       </c>
@@ -14327,7 +14320,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>1005</v>
       </c>
@@ -14347,7 +14340,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="3" t="s">
         <v>1007</v>
       </c>
@@ -14367,7 +14360,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>1009</v>
       </c>
@@ -14387,7 +14380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>1011</v>
       </c>
@@ -14407,7 +14400,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>1013</v>
       </c>
@@ -14427,7 +14420,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="3" t="s">
         <v>1015</v>
       </c>
@@ -14447,7 +14440,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="3" t="s">
         <v>1017</v>
       </c>
@@ -14467,7 +14460,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>1019</v>
       </c>
@@ -14487,7 +14480,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="3" t="s">
         <v>1021</v>
       </c>
@@ -14507,7 +14500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="3" t="s">
         <v>1023</v>
       </c>
@@ -14527,7 +14520,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>1025</v>
       </c>
@@ -14547,7 +14540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>1027</v>
       </c>
@@ -14567,7 +14560,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="3" t="s">
         <v>228</v>
       </c>
@@ -14587,7 +14580,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>1030</v>
       </c>
@@ -14607,7 +14600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>1032</v>
       </c>
@@ -14627,7 +14620,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="3" t="s">
         <v>1034</v>
       </c>
@@ -14647,7 +14640,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="3" t="s">
         <v>1036</v>
       </c>
@@ -14667,7 +14660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="3" t="s">
         <v>1038</v>
       </c>
@@ -14687,7 +14680,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="3" t="s">
         <v>1040</v>
       </c>
@@ -14707,7 +14700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="3" t="s">
         <v>1042</v>
       </c>
@@ -14727,7 +14720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="3" t="s">
         <v>1044</v>
       </c>
@@ -14747,7 +14740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>1046</v>
       </c>
@@ -14767,7 +14760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="3" t="s">
         <v>1048</v>
       </c>
@@ -14787,7 +14780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="3" t="s">
         <v>1050</v>
       </c>
@@ -14807,7 +14800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>1052</v>
       </c>
@@ -14827,7 +14820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>1054</v>
       </c>
@@ -14847,7 +14840,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="3" t="s">
         <v>1056</v>
       </c>
@@ -14867,7 +14860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>1058</v>
       </c>
@@ -14887,7 +14880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="3" t="s">
         <v>1060</v>
       </c>
@@ -14907,7 +14900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>1062</v>
       </c>
@@ -14927,7 +14920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>1064</v>
       </c>
@@ -14947,7 +14940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="3" t="s">
         <v>1066</v>
       </c>
@@ -14967,7 +14960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>1068</v>
       </c>
@@ -14987,7 +14980,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="3" t="s">
         <v>1070</v>
       </c>
@@ -15007,7 +15000,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>1072</v>
       </c>
@@ -15027,7 +15020,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="3" t="s">
         <v>1074</v>
       </c>
@@ -15047,7 +15040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>1076</v>
       </c>
@@ -15067,7 +15060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="3" t="s">
         <v>1078</v>
       </c>
@@ -15087,7 +15080,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>1079</v>
       </c>
@@ -15107,7 +15100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>1081</v>
       </c>
@@ -15127,7 +15120,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="3" t="s">
         <v>1083</v>
       </c>
@@ -15147,7 +15140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>1085</v>
       </c>
@@ -15167,7 +15160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3" t="s">
         <v>1087</v>
       </c>
@@ -15187,7 +15180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="3" t="s">
         <v>1089</v>
       </c>
@@ -15207,7 +15200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="3" t="s">
         <v>1091</v>
       </c>
@@ -15227,7 +15220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>1093</v>
       </c>
@@ -15247,7 +15240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>1095</v>
       </c>
@@ -15267,7 +15260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>1097</v>
       </c>
@@ -15287,7 +15280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>1099</v>
       </c>
@@ -15307,7 +15300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>1101</v>
       </c>
@@ -15327,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>1103</v>
       </c>
@@ -15347,7 +15340,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>1105</v>
       </c>
@@ -15367,7 +15360,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>1107</v>
       </c>
@@ -15387,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>1109</v>
       </c>
@@ -15407,7 +15400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>1111</v>
       </c>
@@ -15427,7 +15420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>1113</v>
       </c>
@@ -15447,7 +15440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>1115</v>
       </c>
@@ -15467,7 +15460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>1117</v>
       </c>
@@ -15487,7 +15480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="3" t="s">
         <v>1119</v>
       </c>
@@ -15507,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>1121</v>
       </c>
@@ -15527,7 +15520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>1123</v>
       </c>
@@ -15547,7 +15540,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>1125</v>
       </c>
@@ -15567,7 +15560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>1127</v>
       </c>
@@ -15587,7 +15580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>1129</v>
       </c>
@@ -15607,7 +15600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>1131</v>
       </c>
@@ -15627,7 +15620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>184</v>
       </c>
@@ -15647,7 +15640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>1134</v>
       </c>
@@ -15667,7 +15660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>1136</v>
       </c>
@@ -15687,7 +15680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="3" t="s">
         <v>1138</v>
       </c>
@@ -15707,7 +15700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="3" t="s">
         <v>1140</v>
       </c>
@@ -15727,7 +15720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="3" t="s">
         <v>1142</v>
       </c>
@@ -15747,7 +15740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="3" t="s">
         <v>1144</v>
       </c>
@@ -15767,7 +15760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3" t="s">
         <v>1146</v>
       </c>
@@ -15787,7 +15780,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
         <v>1148</v>
       </c>
@@ -15807,7 +15800,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
         <v>1150</v>
       </c>
@@ -15827,7 +15820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="3" t="s">
         <v>1152</v>
       </c>
@@ -15847,7 +15840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="3" t="s">
         <v>1154</v>
       </c>
@@ -15867,7 +15860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="3" t="s">
         <v>1156</v>
       </c>
@@ -15887,7 +15880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="3" t="s">
         <v>1158</v>
       </c>
@@ -15907,7 +15900,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>1160</v>
       </c>
@@ -15927,7 +15920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="3" t="s">
         <v>1162</v>
       </c>
@@ -15947,7 +15940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="3" t="s">
         <v>1164</v>
       </c>
@@ -15967,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>1166</v>
       </c>
@@ -15987,7 +15980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="3" t="s">
         <v>37</v>
       </c>
@@ -16007,7 +16000,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="3" t="s">
         <v>1169</v>
       </c>
@@ -16027,7 +16020,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="3" t="s">
         <v>1171</v>
       </c>
@@ -16047,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="3" t="s">
         <v>1173</v>
       </c>
@@ -16067,7 +16060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3" t="s">
         <v>1175</v>
       </c>
@@ -16087,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3" t="s">
         <v>1177</v>
       </c>
@@ -16107,7 +16100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3" t="s">
         <v>1179</v>
       </c>
@@ -16127,7 +16120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>1181</v>
       </c>
@@ -16147,7 +16140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>1183</v>
       </c>
@@ -16167,7 +16160,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3" t="s">
         <v>1185</v>
       </c>
@@ -16187,7 +16180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3" t="s">
         <v>1187</v>
       </c>
@@ -16207,7 +16200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>1189</v>
       </c>
@@ -16227,7 +16220,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3" t="s">
         <v>1191</v>
       </c>
@@ -16247,7 +16240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3" t="s">
         <v>1193</v>
       </c>
@@ -16267,7 +16260,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3" t="s">
         <v>1196</v>
       </c>
@@ -16287,7 +16280,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3" t="s">
         <v>1198</v>
       </c>
@@ -16307,7 +16300,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3" t="s">
         <v>1200</v>
       </c>
@@ -16327,7 +16320,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3" t="s">
         <v>1202</v>
       </c>
@@ -16347,7 +16340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3" t="s">
         <v>1204</v>
       </c>
@@ -16367,7 +16360,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3" t="s">
         <v>1206</v>
       </c>
@@ -16387,7 +16380,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3" t="s">
         <v>1208</v>
       </c>
@@ -16407,7 +16400,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>1210</v>
       </c>
@@ -16427,7 +16420,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>1212</v>
       </c>
@@ -16447,7 +16440,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3" t="s">
         <v>1214</v>
       </c>
@@ -16467,7 +16460,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>1216</v>
       </c>
@@ -16487,7 +16480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3" t="s">
         <v>1218</v>
       </c>
@@ -16507,7 +16500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3" t="s">
         <v>1220</v>
       </c>
@@ -16527,7 +16520,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>1222</v>
       </c>
@@ -16547,7 +16540,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>1224</v>
       </c>
@@ -16567,7 +16560,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>1226</v>
       </c>
@@ -16587,7 +16580,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="3" t="s">
         <v>1228</v>
       </c>
@@ -16607,7 +16600,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="3" t="s">
         <v>1230</v>
       </c>
@@ -16627,7 +16620,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>1232</v>
       </c>
@@ -16647,7 +16640,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="3" t="s">
         <v>1234</v>
       </c>
@@ -16667,7 +16660,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="3" t="s">
         <v>1236</v>
       </c>
@@ -16687,7 +16680,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="3" t="s">
         <v>1238</v>
       </c>
@@ -16707,7 +16700,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="3" t="s">
         <v>1240</v>
       </c>
@@ -16727,7 +16720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="3" t="s">
         <v>1242</v>
       </c>
@@ -16747,7 +16740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="3" t="s">
         <v>1244</v>
       </c>
@@ -16767,7 +16760,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="3" t="s">
         <v>1246</v>
       </c>
@@ -16787,7 +16780,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>1248</v>
       </c>
@@ -16807,7 +16800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>1250</v>
       </c>
@@ -16827,7 +16820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="3" t="s">
         <v>1252</v>
       </c>
@@ -16847,7 +16840,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>1254</v>
       </c>
@@ -16867,7 +16860,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="3" t="s">
         <v>1256</v>
       </c>
@@ -16887,7 +16880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3" t="s">
         <v>1258</v>
       </c>
@@ -16907,7 +16900,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>1260</v>
       </c>
@@ -16927,7 +16920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3" t="s">
         <v>1262</v>
       </c>
@@ -16938,7 +16931,7 @@
         <v>1195</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>1264</v>
+        <v>30</v>
       </c>
       <c r="E627" s="3">
         <v>5</v>
@@ -16947,12 +16940,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B628" s="3" t="s">
         <v>1265</v>
-      </c>
-      <c r="B628" s="3" t="s">
-        <v>1266</v>
       </c>
       <c r="C628" s="3" t="s">
         <v>1195</v>
@@ -16967,12 +16960,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B629" s="3" t="s">
         <v>1267</v>
-      </c>
-      <c r="B629" s="3" t="s">
-        <v>1268</v>
       </c>
       <c r="C629" s="3" t="s">
         <v>1195</v>
@@ -16987,18 +16980,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B630" s="3" t="s">
         <v>1269</v>
-      </c>
-      <c r="B630" s="3" t="s">
-        <v>1270</v>
       </c>
       <c r="C630" s="3" t="s">
         <v>1195</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>1264</v>
+        <v>30</v>
       </c>
       <c r="E630" s="3">
         <v>4.9000000000000004</v>
@@ -17007,12 +17000,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B631" s="3" t="s">
         <v>1271</v>
-      </c>
-      <c r="B631" s="3" t="s">
-        <v>1272</v>
       </c>
       <c r="C631" s="3" t="s">
         <v>1195</v>
@@ -17027,12 +17020,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B632" s="3" t="s">
         <v>1273</v>
-      </c>
-      <c r="B632" s="3" t="s">
-        <v>1274</v>
       </c>
       <c r="C632" s="3" t="s">
         <v>1195</v>
@@ -17047,12 +17040,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B633" s="3" t="s">
         <v>1275</v>
-      </c>
-      <c r="B633" s="3" t="s">
-        <v>1276</v>
       </c>
       <c r="C633" s="3" t="s">
         <v>1195</v>
@@ -17067,12 +17060,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B634" s="3" t="s">
         <v>1277</v>
-      </c>
-      <c r="B634" s="3" t="s">
-        <v>1278</v>
       </c>
       <c r="C634" s="3" t="s">
         <v>1195</v>
@@ -17087,12 +17080,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B635" s="3" t="s">
         <v>1279</v>
-      </c>
-      <c r="B635" s="3" t="s">
-        <v>1280</v>
       </c>
       <c r="C635" s="3" t="s">
         <v>1195</v>
@@ -17107,12 +17100,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B636" s="3" t="s">
         <v>1281</v>
-      </c>
-      <c r="B636" s="3" t="s">
-        <v>1282</v>
       </c>
       <c r="C636" s="3" t="s">
         <v>1195</v>
@@ -17127,12 +17120,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B637" s="3" t="s">
         <v>1283</v>
-      </c>
-      <c r="B637" s="3" t="s">
-        <v>1284</v>
       </c>
       <c r="C637" s="3" t="s">
         <v>1195</v>
@@ -17147,18 +17140,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B638" s="3" t="s">
         <v>1285</v>
-      </c>
-      <c r="B638" s="3" t="s">
-        <v>1286</v>
       </c>
       <c r="C638" s="3" t="s">
         <v>1195</v>
       </c>
       <c r="D638" s="3" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="E638" s="3">
         <v>4.9000000000000004</v>
@@ -17167,18 +17160,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3" t="s">
         <v>649</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C639" s="3" t="s">
         <v>1195</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>1289</v>
+        <v>9</v>
       </c>
       <c r="E639" s="3">
         <v>4</v>
@@ -17187,12 +17180,12 @@
         <v>598</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C640" s="3" t="s">
         <v>1195</v>
@@ -17207,12 +17200,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C641" s="3" t="s">
         <v>1195</v>
@@ -17227,12 +17220,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C642" s="3" t="s">
         <v>1195</v>
@@ -17247,12 +17240,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C643" s="3" t="s">
         <v>1195</v>
@@ -17267,12 +17260,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C644" s="3" t="s">
         <v>1195</v>
@@ -17287,12 +17280,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C645" s="3" t="s">
         <v>1195</v>
@@ -17307,12 +17300,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C646" s="3" t="s">
         <v>1195</v>
@@ -17327,12 +17320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C647" s="3" t="s">
         <v>1195</v>
@@ -17347,12 +17340,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C648" s="3" t="s">
         <v>1195</v>
@@ -17367,12 +17360,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C649" s="3" t="s">
         <v>1195</v>
@@ -17387,12 +17380,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C650" s="3" t="s">
         <v>1195</v>
@@ -17407,18 +17400,18 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C651" s="3" t="s">
         <v>1195</v>
       </c>
       <c r="D651" s="4" t="s">
-        <v>1264</v>
+        <v>30</v>
       </c>
       <c r="E651" s="3">
         <v>5</v>
@@ -17427,12 +17420,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C652" s="3" t="s">
         <v>1195</v>
@@ -17447,12 +17440,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C653" s="3" t="s">
         <v>1195</v>
@@ -17467,12 +17460,12 @@
         <v>487</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="C654" s="3" t="s">
         <v>1195</v>
@@ -17487,12 +17480,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="C655" s="3" t="s">
         <v>1195</v>
@@ -17507,12 +17500,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="C656" s="3" t="s">
         <v>1195</v>
@@ -17527,12 +17520,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="C657" s="3" t="s">
         <v>1195</v>
@@ -17547,12 +17540,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="3" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="C658" s="3" t="s">
         <v>1195</v>
@@ -17567,12 +17560,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="3" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C659" s="3" t="s">
         <v>1195</v>
@@ -17587,12 +17580,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="3" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="C660" s="3" t="s">
         <v>1195</v>
@@ -17607,12 +17600,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="C661" s="3" t="s">
         <v>1195</v>
@@ -17627,12 +17620,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C662" s="3" t="s">
         <v>1195</v>
@@ -17647,12 +17640,12 @@
         <v>521</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C663" s="3" t="s">
         <v>1195</v>
@@ -17667,12 +17660,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C664" s="3" t="s">
         <v>1195</v>
@@ -17687,12 +17680,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C665" s="3" t="s">
         <v>1195</v>
@@ -17707,12 +17700,12 @@
         <v>344</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="3" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C666" s="3" t="s">
         <v>1195</v>
@@ -17727,12 +17720,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="3" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C667" s="3" t="s">
         <v>1195</v>
@@ -17747,12 +17740,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="3" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C668" s="3" t="s">
         <v>1195</v>
@@ -17767,12 +17760,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C669" s="3" t="s">
         <v>1195</v>
@@ -17787,12 +17780,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="3" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="B670" s="3" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C670" s="3" t="s">
         <v>1195</v>
@@ -17807,12 +17800,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="3" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="B671" s="3" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="C671" s="3" t="s">
         <v>1195</v>
@@ -18157,13 +18150,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:F671" xr:uid="{02E33064-0B48-44AB-A4D9-93D8782C5738}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Vale de Santarém"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F671" xr:uid="{02E33064-0B48-44AB-A4D9-93D8782C5738}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
